--- a/data/trans_orig/P1413-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>120280</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101810</v>
+        <v>101988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139377</v>
+        <v>138447</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2059094488546203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1742900255222752</v>
+        <v>0.1745942541781436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2386010754231767</v>
+        <v>0.2370089062885327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -765,19 +765,19 @@
         <v>207260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181732</v>
+        <v>183122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234136</v>
+        <v>231671</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2247129053800092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1970353939989566</v>
+        <v>0.1985418243768559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2538516974162904</v>
+        <v>0.251179459384242</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>326</v>
@@ -786,19 +786,19 @@
         <v>327540</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>294812</v>
+        <v>294933</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>359197</v>
+        <v>360836</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.217421791418766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.19569643224271</v>
+        <v>0.1957771340135655</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.238435315881579</v>
+        <v>0.2395232476393881</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>463861</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>444764</v>
+        <v>445694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>482331</v>
+        <v>482153</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7940905511453796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7613989245768233</v>
+        <v>0.7629910937114682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.825709974477725</v>
+        <v>0.8254057458218564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>682</v>
@@ -836,19 +836,19 @@
         <v>715073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>688197</v>
+        <v>690662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>740601</v>
+        <v>739211</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7752870946199908</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7461483025837096</v>
+        <v>0.7488205406157582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8029646060010435</v>
+        <v>0.8014581756231444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1133</v>
@@ -857,19 +857,19 @@
         <v>1178934</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1147277</v>
+        <v>1145638</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1211662</v>
+        <v>1211541</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7825782085812339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.761564684118421</v>
+        <v>0.7604767523606119</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8043035677572901</v>
+        <v>0.8042228659864344</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>182422</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159338</v>
+        <v>159627</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>207802</v>
+        <v>208717</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1692390137577589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1478237065030213</v>
+        <v>0.1480918871058765</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1927850556275659</v>
+        <v>0.1936336901112037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>212</v>
@@ -982,19 +982,19 @@
         <v>216505</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>191542</v>
+        <v>191419</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241670</v>
+        <v>243044</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2047257719911957</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1811204093044063</v>
+        <v>0.1810046862838647</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2285210352305868</v>
+        <v>0.2298206134255895</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>399</v>
@@ -1003,19 +1003,19 @@
         <v>398927</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>366961</v>
+        <v>366715</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>441112</v>
+        <v>436742</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1868132539173884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1718439350256673</v>
+        <v>0.1717285667934568</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2065682421783212</v>
+        <v>0.2045217110024246</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>895472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>870092</v>
+        <v>869177</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>918556</v>
+        <v>918267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8307609862422412</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8072149443724339</v>
+        <v>0.8063663098887964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8521762934969787</v>
+        <v>0.8519081128941236</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>816</v>
@@ -1053,19 +1053,19 @@
         <v>841033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>815868</v>
+        <v>814494</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>865996</v>
+        <v>866119</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7952742280088043</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7714789647694132</v>
+        <v>0.7701793865744103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8188795906955939</v>
+        <v>0.818995313716135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1684</v>
@@ -1074,19 +1074,19 @@
         <v>1736505</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1694320</v>
+        <v>1698690</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1768471</v>
+        <v>1768717</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8131867460826115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7934317578216786</v>
+        <v>0.7954782889975753</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8281560649743326</v>
+        <v>0.8282714332065432</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>144814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123041</v>
+        <v>123863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168476</v>
+        <v>168768</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1291142964731037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1097021724163002</v>
+        <v>0.1104344810448274</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1502112215315802</v>
+        <v>0.1504718805078114</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -1199,19 +1199,19 @@
         <v>153042</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>131382</v>
+        <v>130935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175739</v>
+        <v>175145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.153975163792787</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1321829525419043</v>
+        <v>0.1317332326059518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1768103453621402</v>
+        <v>0.1762126715145674</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>298</v>
@@ -1220,19 +1220,19 @@
         <v>297856</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>266247</v>
+        <v>264171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>327649</v>
+        <v>330105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1407946580432559</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1258533169188227</v>
+        <v>0.1248720048570726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1548776681724838</v>
+        <v>0.1560383931120634</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>976780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>953118</v>
+        <v>952826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>998553</v>
+        <v>997731</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8708857035268963</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8497887784684197</v>
+        <v>0.8495281194921886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8902978275836999</v>
+        <v>0.8895655189551727</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>831</v>
@@ -1270,19 +1270,19 @@
         <v>840898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>818201</v>
+        <v>818795</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>862558</v>
+        <v>863005</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.846024836207213</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8231896546378599</v>
+        <v>0.8237873284854326</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8678170474580957</v>
+        <v>0.8682667673940482</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1787</v>
@@ -1291,19 +1291,19 @@
         <v>1817678</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1787885</v>
+        <v>1785429</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1849287</v>
+        <v>1851363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8592053419567441</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8451223318275163</v>
+        <v>0.8439616068879366</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8741466830811774</v>
+        <v>0.8751279951429274</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>70626</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55832</v>
+        <v>56666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87642</v>
+        <v>87561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1579304510054361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1248471601904394</v>
+        <v>0.1267133894877623</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1959795376357075</v>
+        <v>0.1957973827453294</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -1416,19 +1416,19 @@
         <v>58502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47026</v>
+        <v>45943</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73235</v>
+        <v>74268</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1714818874591988</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1378437140591156</v>
+        <v>0.1346669678734985</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2146663411150397</v>
+        <v>0.2176949808443644</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1437,19 +1437,19 @@
         <v>129129</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108225</v>
+        <v>109664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148702</v>
+        <v>151539</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1637947717283023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.137279509250208</v>
+        <v>0.1391038851094952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1886220746806308</v>
+        <v>0.1922214566719873</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>376574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359558</v>
+        <v>359639</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>391368</v>
+        <v>390534</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8420695489945639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8040204623642919</v>
+        <v>0.8042026172546706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8751528398095606</v>
+        <v>0.8732866105122377</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>281</v>
@@ -1487,19 +1487,19 @@
         <v>282656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>267923</v>
+        <v>266890</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294132</v>
+        <v>295215</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8285181125408011</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7853336588849603</v>
+        <v>0.7823050191556356</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8621562859408844</v>
+        <v>0.8653330321265014</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>648</v>
@@ -1508,19 +1508,19 @@
         <v>659229</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>639656</v>
+        <v>636819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>680133</v>
+        <v>678694</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8362052282716976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8113779253193691</v>
+        <v>0.8077785433280128</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8627204907497921</v>
+        <v>0.8608961148905048</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>518142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>477414</v>
+        <v>478578</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>563146</v>
+        <v>556998</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1603743782258271</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1477681531372045</v>
+        <v>0.1481284586649372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1743037695649722</v>
+        <v>0.1724010678619621</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>624</v>
@@ -1633,19 +1633,19 @@
         <v>635310</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>589906</v>
+        <v>592532</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>677961</v>
+        <v>685182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1916488250898962</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1779522051101248</v>
+        <v>0.1787443051438979</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2045150374718759</v>
+        <v>0.2066931971836049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1150</v>
@@ -1654,19 +1654,19 @@
         <v>1153452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1095798</v>
+        <v>1086306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1216681</v>
+        <v>1215562</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1762126021371891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1674048188634571</v>
+        <v>0.1659546881541701</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1858720327838026</v>
+        <v>0.1857011504726484</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2712687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2667683</v>
+        <v>2673831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2753415</v>
+        <v>2752251</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8396256217741729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8256962304350273</v>
+        <v>0.8275989321380377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8522318468627953</v>
+        <v>0.8518715413350628</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2610</v>
@@ -1704,19 +1704,19 @@
         <v>2679659</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2637008</v>
+        <v>2629787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2725063</v>
+        <v>2722437</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8083511749101038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.795484962528124</v>
+        <v>0.7933068028163951</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8220477948898749</v>
+        <v>0.8212556948561022</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5252</v>
@@ -1725,19 +1725,19 @@
         <v>5392346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5329117</v>
+        <v>5330236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5450000</v>
+        <v>5459492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8237873978628109</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8141279672161977</v>
+        <v>0.8142988495273517</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8325951811365433</v>
+        <v>0.83404531184583</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>97943</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80507</v>
+        <v>80770</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117805</v>
+        <v>118068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09382070092488295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07711879341278452</v>
+        <v>0.07737113848065162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1128469467536586</v>
+        <v>0.113098931738284</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>209</v>
@@ -2090,19 +2090,19 @@
         <v>227708</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202164</v>
+        <v>201475</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256552</v>
+        <v>256517</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2035554478160941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1807209928206088</v>
+        <v>0.1801049290345347</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2293397538299226</v>
+        <v>0.2293087720150442</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>300</v>
@@ -2111,19 +2111,19 @@
         <v>325651</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>290604</v>
+        <v>294965</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>362174</v>
+        <v>366855</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1505837612321355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1343777837282188</v>
+        <v>0.1363944245099779</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.16747226271318</v>
+        <v>0.1696368987645077</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>945992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>926130</v>
+        <v>925867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>963428</v>
+        <v>963165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9061792990751171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8871530532463414</v>
+        <v>0.8869010682617161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9228812065872154</v>
+        <v>0.9226288615193484</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>821</v>
@@ -2161,19 +2161,19 @@
         <v>890945</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>862101</v>
+        <v>862136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>916489</v>
+        <v>917178</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7964445521839059</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7706602461700773</v>
+        <v>0.7706912279849558</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8192790071793912</v>
+        <v>0.8198950709654651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1708</v>
@@ -2182,19 +2182,19 @@
         <v>1836937</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1800414</v>
+        <v>1795733</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1871984</v>
+        <v>1867623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8494162387678645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8325277372868198</v>
+        <v>0.8303631012354921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8656222162717812</v>
+        <v>0.8636055754900221</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>94484</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77410</v>
+        <v>76953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116965</v>
+        <v>116328</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09670142387103889</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07922665816555781</v>
+        <v>0.07875832098283142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1197091898941454</v>
+        <v>0.1190571627509746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -2307,19 +2307,19 @@
         <v>210469</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184892</v>
+        <v>184800</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>237435</v>
+        <v>237021</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1926793551810561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1692645301082026</v>
+        <v>0.1691803336501426</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2173659808432323</v>
+        <v>0.2169868716800381</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>286</v>
@@ -2328,19 +2328,19 @@
         <v>304953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>273491</v>
+        <v>270933</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>335407</v>
+        <v>338768</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1473631096223375</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1321595134221695</v>
+        <v>0.1309233626785516</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1620792305371886</v>
+        <v>0.1637035595261909</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>882589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>860108</v>
+        <v>860745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>899663</v>
+        <v>900120</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9032985761289611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8802908101058545</v>
+        <v>0.8809428372490253</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9207733418344421</v>
+        <v>0.9212416790171685</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>822</v>
@@ -2378,19 +2378,19 @@
         <v>881858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>854892</v>
+        <v>855306</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>907435</v>
+        <v>907527</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8073206448189439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7826340191567678</v>
+        <v>0.7830131283199619</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8307354698917974</v>
+        <v>0.8308196663498575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1657</v>
@@ -2399,19 +2399,19 @@
         <v>1764447</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1733993</v>
+        <v>1730632</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1795909</v>
+        <v>1798467</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8526368903776625</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8379207694628112</v>
+        <v>0.836296440473809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8678404865778303</v>
+        <v>0.8690766373214484</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>74835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59999</v>
+        <v>58453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94206</v>
+        <v>92401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08454872658490276</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06778656167617368</v>
+        <v>0.06603950550468833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1064335797697454</v>
+        <v>0.1043938931262658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -2524,19 +2524,19 @@
         <v>129798</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>107383</v>
+        <v>108671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150934</v>
+        <v>151234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1482059858852454</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1226123499378741</v>
+        <v>0.1240825769586827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1723391158507472</v>
+        <v>0.1726820937098072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>188</v>
@@ -2545,19 +2545,19 @@
         <v>204634</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>176784</v>
+        <v>177594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>232274</v>
+        <v>232803</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1162089085410493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1003934414656538</v>
+        <v>0.1008533202078208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1319057293856727</v>
+        <v>0.1322061650973387</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>810280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>790909</v>
+        <v>792714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>825116</v>
+        <v>826662</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9154512734150972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8935664202302546</v>
+        <v>0.8956061068737342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9322134383238263</v>
+        <v>0.9339604944953117</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>702</v>
@@ -2595,19 +2595,19 @@
         <v>745998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>724862</v>
+        <v>724562</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>768413</v>
+        <v>767125</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8517940141147545</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.827660884149253</v>
+        <v>0.8273179062901929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8773876500621259</v>
+        <v>0.8759174230413173</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1463</v>
@@ -2616,19 +2616,19 @@
         <v>1556277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1528637</v>
+        <v>1528108</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1584127</v>
+        <v>1583317</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8837910914589507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8680942706143272</v>
+        <v>0.8677938349026614</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8996065585343462</v>
+        <v>0.8991466797921792</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>40593</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29723</v>
+        <v>29613</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55478</v>
+        <v>56579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08069736560834719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05908883460099049</v>
+        <v>0.05887025887858504</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1102889013606272</v>
+        <v>0.1124776087703603</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -2741,19 +2741,19 @@
         <v>70199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55225</v>
+        <v>54543</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86424</v>
+        <v>87425</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1550558753264384</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1219804066223242</v>
+        <v>0.1204741966443792</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1908927349865784</v>
+        <v>0.1931036904045401</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -2762,19 +2762,19 @@
         <v>110792</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91468</v>
+        <v>91209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132199</v>
+        <v>132230</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1159204395021597</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0957022136175386</v>
+        <v>0.09543143806776877</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.138318046073367</v>
+        <v>0.1383508643955249</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>462430</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>447545</v>
+        <v>446444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>473300</v>
+        <v>473410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9193026343916528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8897110986393729</v>
+        <v>0.8875223912296397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9409111653990095</v>
+        <v>0.941129741121415</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>351</v>
@@ -2812,19 +2812,19 @@
         <v>382537</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366312</v>
+        <v>365311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397511</v>
+        <v>398193</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8449441246735616</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8091072650134217</v>
+        <v>0.8068963095954598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8780195933776757</v>
+        <v>0.8795258033556199</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>774</v>
@@ -2833,19 +2833,19 @@
         <v>844966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>823559</v>
+        <v>823528</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>864290</v>
+        <v>864549</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8840795604978403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8616819539266333</v>
+        <v>0.8616491356044755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9042977863824616</v>
+        <v>0.9045685619322312</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>307855</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>277090</v>
+        <v>275875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>345772</v>
+        <v>343691</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0903026865764847</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08127858567720869</v>
+        <v>0.08092194588657295</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1014248986113496</v>
+        <v>0.1008143976491048</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>586</v>
@@ -2958,19 +2958,19 @@
         <v>638174</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>589022</v>
+        <v>590714</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>684519</v>
+        <v>684985</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.18030010293166</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1664134210220295</v>
+        <v>0.1668914032386616</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1933937728621451</v>
+        <v>0.1935253728046305</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>873</v>
@@ -2979,19 +2979,19 @@
         <v>946029</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>886735</v>
+        <v>893450</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1006856</v>
+        <v>1009853</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1361456294536227</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.127612468150549</v>
+        <v>0.1285788732105169</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1448993643792238</v>
+        <v>0.145330610200213</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3101290</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3063373</v>
+        <v>3065454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3132055</v>
+        <v>3133270</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9096973134235153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8985751013886507</v>
+        <v>0.8991856023508952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9187214143227916</v>
+        <v>0.9190780541134274</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2696</v>
@@ -3029,19 +3029,19 @@
         <v>2901337</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2854992</v>
+        <v>2854526</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2950489</v>
+        <v>2948797</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.81969989706834</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8066062271378549</v>
+        <v>0.8064746271953696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8335865789779705</v>
+        <v>0.8331085967613384</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5602</v>
@@ -3050,19 +3050,19 @@
         <v>6002628</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5941801</v>
+        <v>5938804</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6061922</v>
+        <v>6055207</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8638543705463774</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8551006356207761</v>
+        <v>0.8546693897997869</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8723875318494509</v>
+        <v>0.871421126789483</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>112008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93420</v>
+        <v>91777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133501</v>
+        <v>135365</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09929795829000669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08281905333779375</v>
+        <v>0.08136287091233042</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1183519134181405</v>
+        <v>0.1200044960693016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -3415,19 +3415,19 @@
         <v>206488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>179959</v>
+        <v>179335</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>235531</v>
+        <v>235242</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1639366674147557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1428740132196784</v>
+        <v>0.1423790463073399</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1869943694173662</v>
+        <v>0.1867649449793682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>293</v>
@@ -3436,19 +3436,19 @@
         <v>318496</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>289533</v>
+        <v>284627</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>358340</v>
+        <v>352913</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1333982323898278</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1212673486178149</v>
+        <v>0.1192126704247869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1500864524138031</v>
+        <v>0.1478134327341439</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1015989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>994496</v>
+        <v>992632</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1034577</v>
+        <v>1036220</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9007020417099934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8816480865818596</v>
+        <v>0.8799955039306983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9171809466622062</v>
+        <v>0.9186371290876696</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1001</v>
@@ -3486,19 +3486,19 @@
         <v>1053073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1024030</v>
+        <v>1024319</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1079602</v>
+        <v>1080226</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8360633325852443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8130056305826339</v>
+        <v>0.8132350550206319</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8571259867803217</v>
+        <v>0.8576209536926601</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1961</v>
@@ -3507,19 +3507,19 @@
         <v>2069062</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2029218</v>
+        <v>2034645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2098025</v>
+        <v>2102931</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8666017676101723</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8499135475861969</v>
+        <v>0.8521865672658557</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.878732651382185</v>
+        <v>0.8807873295752128</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>78606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63518</v>
+        <v>63109</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98041</v>
+        <v>96658</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08649157806439686</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06989008348080215</v>
+        <v>0.06943977497365586</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1078767435938845</v>
+        <v>0.106355387473149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>131</v>
@@ -3632,19 +3632,19 @@
         <v>145605</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>123615</v>
+        <v>124916</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>169932</v>
+        <v>171482</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1446679527853991</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1228197759281191</v>
+        <v>0.1241123777003433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1688383270063047</v>
+        <v>0.1703787177725649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>209</v>
@@ -3653,19 +3653,19 @@
         <v>224210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196692</v>
+        <v>197583</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>257838</v>
+        <v>255883</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1170628106106732</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1026953941515431</v>
+        <v>0.1031605670752812</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1346202244008977</v>
+        <v>0.1335995943076126</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>830219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>810784</v>
+        <v>812167</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>845307</v>
+        <v>845716</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9135084219356031</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8921232564061157</v>
+        <v>0.8936446125268509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9301099165191979</v>
+        <v>0.9305602250263442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>820</v>
@@ -3703,19 +3703,19 @@
         <v>860870</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>836543</v>
+        <v>834993</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>882860</v>
+        <v>881559</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8553320472146009</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8311616729936953</v>
+        <v>0.829621282227435</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8771802240718808</v>
+        <v>0.8758876222996567</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1623</v>
@@ -3724,19 +3724,19 @@
         <v>1691090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1657462</v>
+        <v>1659417</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1718608</v>
+        <v>1717717</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8829371893893267</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8653797755991023</v>
+        <v>0.866400405692387</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8973046058484568</v>
+        <v>0.8968394329247187</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>49392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36618</v>
+        <v>35369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64259</v>
+        <v>64850</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05995960878246998</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0444525070284594</v>
+        <v>0.0429356551617869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07800708687826244</v>
+        <v>0.0787246506978668</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -3849,19 +3849,19 @@
         <v>81816</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63555</v>
+        <v>65833</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101645</v>
+        <v>101833</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1061085700548385</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08242623571321941</v>
+        <v>0.08538033150246845</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1318248002401155</v>
+        <v>0.1320688712245123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -3870,19 +3870,19 @@
         <v>131208</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108724</v>
+        <v>111631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155707</v>
+        <v>157779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08227159557491302</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0681730867834974</v>
+        <v>0.06999583734753181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0976333272152428</v>
+        <v>0.09893243603923631</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>774367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>759500</v>
+        <v>758909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>787141</v>
+        <v>788390</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.94004039121753</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9219929131217375</v>
+        <v>0.9212753493021332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9555474929715405</v>
+        <v>0.9570643448382131</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>655</v>
@@ -3920,19 +3920,19 @@
         <v>689243</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>669414</v>
+        <v>669226</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707504</v>
+        <v>705226</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8938914299451616</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8681751997598846</v>
+        <v>0.8679311287754876</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9175737642867808</v>
+        <v>0.9146196684975315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1396</v>
@@ -3941,19 +3941,19 @@
         <v>1463610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1439111</v>
+        <v>1437039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1486094</v>
+        <v>1483187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.917728404425087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9023666727847589</v>
+        <v>0.9010675639607636</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9318269132165027</v>
+        <v>0.9300041626524681</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>35311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24570</v>
+        <v>24435</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49708</v>
+        <v>48070</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06968884311672781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04848946305309334</v>
+        <v>0.04822432945689745</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09810038708985828</v>
+        <v>0.09486795038252899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4066,19 +4066,19 @@
         <v>55101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41764</v>
+        <v>42434</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71215</v>
+        <v>72603</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1125198729257292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08528495924715206</v>
+        <v>0.0866535554589879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1454254423833546</v>
+        <v>0.1482615226119722</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -4087,19 +4087,19 @@
         <v>90412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73063</v>
+        <v>72444</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110518</v>
+        <v>108783</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09073890634736961</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0733266483175837</v>
+        <v>0.07270609921654872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1109171877300096</v>
+        <v>0.1091764467615244</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>471390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>456993</v>
+        <v>458631</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>482131</v>
+        <v>482266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9303111568832722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.901899612910142</v>
+        <v>0.9051320496174705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9515105369469071</v>
+        <v>0.9517756705431023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>406</v>
@@ -4137,19 +4137,19 @@
         <v>434597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>418483</v>
+        <v>417095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>447934</v>
+        <v>447264</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8874801270742708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8545745576166454</v>
+        <v>0.8517384773880279</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9147150407528479</v>
+        <v>0.9133464445410122</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>846</v>
@@ -4158,19 +4158,19 @@
         <v>905986</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>885880</v>
+        <v>887615</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>923335</v>
+        <v>923954</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9092610936526304</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8890828122699904</v>
+        <v>0.8908235532384752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9266733516824163</v>
+        <v>0.927293900783451</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>275317</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>244681</v>
+        <v>242902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>308358</v>
+        <v>306891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08176243544838492</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07266427877015465</v>
+        <v>0.07213600907102487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09157474154527434</v>
+        <v>0.09113898016888311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>440</v>
@@ -4283,19 +4283,19 @@
         <v>489010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>446242</v>
+        <v>448232</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>533372</v>
+        <v>531472</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1386556143082262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1265291597098106</v>
+        <v>0.1270935370174448</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1512343884960564</v>
+        <v>0.1506956470950946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>701</v>
@@ -4304,19 +4304,19 @@
         <v>764327</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>715810</v>
+        <v>715330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>828868</v>
+        <v>825408</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1108672014604669</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.10382972895335</v>
+        <v>0.1037600799502233</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1202289970600626</v>
+        <v>0.1197271144859681</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3091965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3058924</v>
+        <v>3060391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3122601</v>
+        <v>3124380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9182375645516151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9084252584547259</v>
+        <v>0.908861019831117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9273357212298453</v>
+        <v>0.9278639909289752</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2882</v>
@@ -4354,19 +4354,19 @@
         <v>3037782</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2993420</v>
+        <v>2995320</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3080550</v>
+        <v>3078560</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8613443856917739</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8487656115039436</v>
+        <v>0.8493043529049055</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8734708402901893</v>
+        <v>0.8729064629825551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5826</v>
@@ -4375,19 +4375,19 @@
         <v>6129748</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6065207</v>
+        <v>6068667</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6178265</v>
+        <v>6178745</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8891327985395331</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8797710029399375</v>
+        <v>0.8802728855140319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8961702710466501</v>
+        <v>0.8962399200497768</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>144480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125058</v>
+        <v>123226</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166321</v>
+        <v>166185</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2901955984142951</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2511854032326734</v>
+        <v>0.2475063337061929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3340642945599805</v>
+        <v>0.333791083328032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>401</v>
@@ -4740,19 +4740,19 @@
         <v>256814</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>236389</v>
+        <v>235011</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>278496</v>
+        <v>279728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4118377768723379</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3790835195588809</v>
+        <v>0.3768733536722643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4466080055776896</v>
+        <v>0.4485839870325134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>561</v>
@@ -4761,19 +4761,19 @@
         <v>401294</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>369810</v>
+        <v>373596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>432197</v>
+        <v>435906</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3578344342925149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3297598469439553</v>
+        <v>0.3331359291378755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.385390765334192</v>
+        <v>0.3886981979849227</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>353391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>331550</v>
+        <v>331686</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>372813</v>
+        <v>374645</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7098044015857049</v>
+        <v>0.709804401585705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6659357054400196</v>
+        <v>0.666208916671968</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7488145967673266</v>
+        <v>0.752493666293807</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>460</v>
@@ -4811,19 +4811,19 @@
         <v>366766</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>345084</v>
+        <v>343852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>387191</v>
+        <v>388569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.588162223127662</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5533919944223104</v>
+        <v>0.5514160129674864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6209164804411191</v>
+        <v>0.6231266463277356</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>754</v>
@@ -4832,19 +4832,19 @@
         <v>720157</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>689254</v>
+        <v>685545</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>751641</v>
+        <v>747855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.642165565707485</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.614609234665808</v>
+        <v>0.6113018020150771</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6702401530560446</v>
+        <v>0.6668640708621242</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>187963</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>163710</v>
+        <v>162749</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>212308</v>
+        <v>209599</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1957668185100077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.170507423233648</v>
+        <v>0.1695057411926199</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2211224662555044</v>
+        <v>0.2183009840187998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>571</v>
@@ -4957,19 +4957,19 @@
         <v>342765</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>318277</v>
+        <v>316531</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>368745</v>
+        <v>369036</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3073662132281572</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2854070830884546</v>
+        <v>0.2838418765430266</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3306634938624463</v>
+        <v>0.3309245494570811</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>794</v>
@@ -4978,19 +4978,19 @@
         <v>530727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>497338</v>
+        <v>495757</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>568671</v>
+        <v>566350</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2557348804905822</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2396461013452255</v>
+        <v>0.2388842839261638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2740185256162688</v>
+        <v>0.2728998464551916</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>772174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>747829</v>
+        <v>750538</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>796427</v>
+        <v>797388</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8042331814899923</v>
+        <v>0.8042331814899925</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7788775337444956</v>
+        <v>0.7816990159812001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.829492576766352</v>
+        <v>0.8304942588073801</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1035</v>
@@ -5028,19 +5028,19 @@
         <v>772402</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>746422</v>
+        <v>746131</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>796890</v>
+        <v>798636</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6926337867718428</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6693365061375536</v>
+        <v>0.6690754505429193</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7145929169115453</v>
+        <v>0.7161581234569734</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1722</v>
@@ -5049,19 +5049,19 @@
         <v>1544576</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1506632</v>
+        <v>1508953</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1577965</v>
+        <v>1579546</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7442651195094176</v>
+        <v>0.7442651195094178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7259814743837305</v>
+        <v>0.7271001535448083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7603538986547741</v>
+        <v>0.7611157160738361</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>149032</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125694</v>
+        <v>129000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>173600</v>
+        <v>176657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1425343061996345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1202140461663878</v>
+        <v>0.1233757245069363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1660311852609644</v>
+        <v>0.1689546076562098</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>444</v>
@@ -5174,19 +5174,19 @@
         <v>279488</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>254104</v>
+        <v>255241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>306724</v>
+        <v>303829</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.266943922381891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2426988558240961</v>
+        <v>0.2437854088078094</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2929575605620299</v>
+        <v>0.2901924711454662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>611</v>
@@ -5195,19 +5195,19 @@
         <v>428520</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>395275</v>
+        <v>395328</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>463955</v>
+        <v>462597</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2047808082022318</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.188893892323098</v>
+        <v>0.1889190628700337</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.221714577008325</v>
+        <v>0.2210655205507261</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>896556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>871988</v>
+        <v>868931</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>919894</v>
+        <v>916588</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8574656938003655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8339688147390355</v>
+        <v>0.8310453923437902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8797859538336116</v>
+        <v>0.8766242754930635</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1071</v>
@@ -5245,19 +5245,19 @@
         <v>767503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740267</v>
+        <v>743162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>792887</v>
+        <v>791750</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7330560776181091</v>
+        <v>0.733056077618109</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7070424394379706</v>
+        <v>0.7098075288545338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.757301144175905</v>
+        <v>0.7562145911921906</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1932</v>
@@ -5266,19 +5266,19 @@
         <v>1664058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1628623</v>
+        <v>1629981</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1697303</v>
+        <v>1697250</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7952191917977682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.778285422991675</v>
+        <v>0.7789344794492739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8111061076769017</v>
+        <v>0.8110809371299663</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>172068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149595</v>
+        <v>147049</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198545</v>
+        <v>198958</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1769675286857182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1538554267054888</v>
+        <v>0.1512362218932633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2041987431565469</v>
+        <v>0.2046233133828487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>381</v>
@@ -5391,19 +5391,19 @@
         <v>250993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>227229</v>
+        <v>227950</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>275628</v>
+        <v>278002</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.276557917843086</v>
+        <v>0.2765579178430861</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2503735924750968</v>
+        <v>0.2511678975853036</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3037019228439544</v>
+        <v>0.3063184479286388</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>568</v>
@@ -5412,19 +5412,19 @@
         <v>423061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>389345</v>
+        <v>391681</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>459447</v>
+        <v>458217</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2250475223059809</v>
+        <v>0.2250475223059808</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2071126339330564</v>
+        <v>0.2083549192985622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2444035885498675</v>
+        <v>0.2437488570633007</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>800244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>773767</v>
+        <v>773354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>822717</v>
+        <v>825263</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8230324713142818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7958012568434529</v>
+        <v>0.7953766866171513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8461445732945109</v>
+        <v>0.8487637781067365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>938</v>
@@ -5462,19 +5462,19 @@
         <v>656567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>631932</v>
+        <v>629558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>680331</v>
+        <v>679610</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7234420821569141</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6962980771560456</v>
+        <v>0.6936815520713612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7496264075249032</v>
+        <v>0.7488321024146966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1696</v>
@@ -5483,19 +5483,19 @@
         <v>1456811</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1420425</v>
+        <v>1421655</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1490527</v>
+        <v>1488191</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7749524776940192</v>
+        <v>0.7749524776940191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7555964114501326</v>
+        <v>0.7562511429366996</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7928873660669437</v>
+        <v>0.791645080701438</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>653543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>606794</v>
+        <v>608968</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>703242</v>
+        <v>701481</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1880207295415499</v>
+        <v>0.18802072954155</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1745714335712157</v>
+        <v>0.1751967616738926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2023189307352457</v>
+        <v>0.2018124205332208</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1797</v>
@@ -5608,19 +5608,19 @@
         <v>1130059</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1081400</v>
+        <v>1085142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1181377</v>
+        <v>1180616</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3059756627710022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2928006676984907</v>
+        <v>0.2938139841551449</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3198705000286897</v>
+        <v>0.3196645794726438</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2534</v>
@@ -5629,19 +5629,19 @@
         <v>1783602</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1713623</v>
+        <v>1721184</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1846058</v>
+        <v>1851010</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2487865492680063</v>
+        <v>0.2487865492680062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2390255039960997</v>
+        <v>0.2400802390840155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2574982280030781</v>
+        <v>0.2581890836784052</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2822365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2772666</v>
+        <v>2774427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2869114</v>
+        <v>2866940</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.81197927045845</v>
+        <v>0.8119792704584501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7976810692647542</v>
+        <v>0.7981875794667793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8254285664287843</v>
+        <v>0.8248032383261076</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3504</v>
@@ -5679,19 +5679,19 @@
         <v>2563238</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2511920</v>
+        <v>2512681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2611897</v>
+        <v>2608155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6940243372289978</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6801294999713102</v>
+        <v>0.6803354205273564</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7071993323015093</v>
+        <v>0.7061860158448552</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6104</v>
@@ -5700,19 +5700,19 @@
         <v>5385603</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5323147</v>
+        <v>5318195</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5455582</v>
+        <v>5448021</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7512134507319937</v>
+        <v>0.7512134507319935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7425017719969219</v>
+        <v>0.7418109163215948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7609744960039002</v>
+        <v>0.7599197609159845</v>
       </c>
     </row>
     <row r="18">
